--- a/results/FrequencyTables/27341108_gRNA-7.xlsx
+++ b/results/FrequencyTables/27341108_gRNA-7.xlsx
@@ -465,49 +465,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00681302043906132</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00151400454201363</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.00151400454201363</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.000757002271006813</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.000757002271006813</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00151400454201363</v>
       </c>
       <c r="H2">
-        <v>0.0645161290322581</v>
+        <v>0.0416351249053747</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0355791067373202</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0105980317940954</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.0227100681302044</v>
       </c>
       <c r="L2">
-        <v>0.010752688172043</v>
+        <v>0.012112036336109</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.00454201362604088</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00529901589704769</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.994700984102952</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.000757002271006813</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -522,16 +522,16 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00151400454201363</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.934140802422407</v>
       </c>
       <c r="W2">
-        <v>0.010752688172043</v>
+        <v>0.0151400454201363</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.0060560181680545</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,40 +539,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.987887963663891</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.00757002271006813</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0060560181680545</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00681302043906132</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.989401968205905</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.98107494322483</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0060560181680545</v>
       </c>
       <c r="I3">
-        <v>0.989247311827957</v>
+        <v>0.945495836487509</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0280090840272521</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.000757002271006813</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.000757002271006813</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -581,28 +581,28 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.998485995457986</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.0060560181680545</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00151400454201363</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.999242997728993</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.993186979560939</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00908402725208176</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -613,49 +613,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.000757002271006813</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00529901589704769</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.010752688172043</v>
+        <v>0.00227100681302044</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.000757002271006813</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.00529901589704769</v>
       </c>
       <c r="H4">
-        <v>0.935483870967742</v>
+        <v>0.94776684330053</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00302800908402725</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.000757002271006813</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9666919000757</v>
       </c>
       <c r="L4">
-        <v>0.989247311827957</v>
+        <v>0.987130961392884</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.993943981831946</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.993943981831946</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.000757002271006813</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.000757002271006813</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.000757002271006813</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.0643451930355791</v>
       </c>
       <c r="W4">
-        <v>0.989247311827957</v>
+        <v>0.9666919000757</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.98107494322483</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,34 +687,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.00378501135503407</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.985616956850871</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.992429977289932</v>
       </c>
       <c r="E5">
-        <v>0.989247311827957</v>
+        <v>0.990158970476911</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.00908402725208176</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.012112036336109</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00454201362604088</v>
       </c>
       <c r="I5">
-        <v>0.010752688172043</v>
+        <v>0.0158970476911431</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.960635881907646</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.00908402725208176</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -723,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.000757002271006813</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.00454201362604088</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -735,25 +735,25 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.993943981831946</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.998485995457986</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.000757002271006813</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00454201362604088</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00151400454201363</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00908402725208176</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.0128690386071158</v>
       </c>
     </row>
   </sheetData>
